--- a/mapFolding/_e/analysisExcel/p2d5.xlsx
+++ b/mapFolding/_e/analysisExcel/p2d5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\mapFolding\Z0Z_notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\mapFolding\mapFolding\_e\analysisExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAB06C5-3B00-460B-A533-B5995E7AC34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB7633-A66C-422E-B350-185748B39886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C910133-5CDB-44C8-B599-A572F61681D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C910133-5CDB-44C8-B599-A572F61681D2}"/>
   </bookViews>
   <sheets>
     <sheet name="p2x2x2x2x2" sheetId="1" r:id="rId1"/>
@@ -21856,7 +21856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K128" sqref="K128"/>
+      <selection pane="bottomLeft" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
